--- a/Лабораторные анализы Давление насыщенных паров в продукте, зимний период.xlsx
+++ b/Лабораторные анализы Давление насыщенных паров в продукте, зимний период.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Tasks\Burgas HOB 16.10.2023\Задача студентам\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anana\Documents\Soft-Sensors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B8A66D3-7C5F-4653-8686-323EEE29D90D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B28D3D-8487-4587-91BA-0A8D4B3FACEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>БДС EN 13016-1</t>
   </si>
   <si>
     <t>Давление насыщенных паров, зимний период, кПа</t>
@@ -76,14 +73,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -92,7 +86,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -108,9 +102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -148,7 +142,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -254,7 +248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,3452 +398,3441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C312"/>
+  <dimension ref="A1:C311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>44562</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B2" s="1">
         <v>0.47291666666666665</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C2" s="3">
         <v>49.8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>44563</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B3" s="1">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C3" s="3">
         <v>52.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>44564</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B4" s="1">
         <v>0.43388888888888894</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C4" s="3">
         <v>50.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>44565</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B5" s="1">
         <v>0.4672337962962963</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C5" s="3">
         <v>52.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>44566</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B6" s="1">
         <v>0.43296296296296299</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C6" s="3">
         <v>54.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>44567</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B7" s="1">
         <v>0.47175925925925927</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C7" s="3">
         <v>53.8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>44568</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B8" s="1">
         <v>0.43214120370370374</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C8" s="3">
         <v>54.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>44569</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B9" s="1">
         <v>0.43517361111111108</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C9" s="3">
         <v>55.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>44570</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B10" s="1">
         <v>0.44476851851851856</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C10" s="3">
         <v>55.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>44571</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B11" s="1">
         <v>0.44153935185185184</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C11" s="3">
         <v>56.2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>44572</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B12" s="1">
         <v>0.43309027777777781</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C12" s="3">
         <v>56.1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>44573</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B13" s="1">
         <v>0.43468749999999995</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C13" s="3">
         <v>59.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>44574</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B14" s="1">
         <v>0.4508449074074074</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C14" s="3">
         <v>58.9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>44575</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B15" s="1">
         <v>0.44295138888888891</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C15" s="3">
         <v>58.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>44576</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B16" s="1">
         <v>0.43004629629629632</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C16" s="3">
         <v>54.6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>44577</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B17" s="1">
         <v>0.4475810185185185</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C17" s="3">
         <v>59.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>44578</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B18" s="1">
         <v>0.46763888888888888</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C18" s="3">
         <v>57.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>44579</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B19" s="1">
         <v>0.48431712962962964</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C19" s="3">
         <v>54.9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>44580</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B20" s="1">
         <v>0.43693287037037037</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C20" s="3">
         <v>58.3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>44581</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B21" s="1">
         <v>0.43861111111111112</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C21" s="3">
         <v>56.4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>44582</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B22" s="1">
         <v>0.44611111111111112</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C22" s="3">
         <v>50.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>44583</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B23" s="1">
         <v>0.42884259259259255</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C23" s="3">
         <v>56.6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>44584</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B24" s="1">
         <v>0.45196759259259256</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C24" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>44585</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B25" s="1">
         <v>0.44363425925925926</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C25" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>44586</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B26" s="1">
         <v>0.47627314814814814</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C26" s="3">
         <v>61.4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>44587</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B27" s="1">
         <v>0.47892361111111109</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C27" s="3">
         <v>58.7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>44588</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B28" s="1">
         <v>0.45870370370370367</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C28" s="3">
         <v>58.7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>44589</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B29" s="1">
         <v>0.46269675925925924</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C29" s="3">
         <v>57.8</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>44590</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B30" s="1">
         <v>0.4475810185185185</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C30" s="3">
         <v>58.8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>44591</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B31" s="1">
         <v>0.43449074074074073</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C31" s="3">
         <v>56.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>44592</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B32" s="1">
         <v>0.42601851851851852</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C32" s="3">
         <v>58.5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>44593</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B33" s="1">
         <v>0.45427083333333335</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C33" s="3">
         <v>59.1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>44594</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B34" s="1">
         <v>0.44474537037037037</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C34" s="3">
         <v>57.2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>44595</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B35" s="1">
         <v>0.47112268518518513</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C35" s="3">
         <v>58.4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>44596</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B36" s="1">
         <v>0.44386574074074076</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C36" s="3">
         <v>57.6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>44597</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B37" s="1">
         <v>0.44059027777777776</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C37" s="3">
         <v>60.3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>44598</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B38" s="1">
         <v>0.48946759259259259</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C38" s="3">
         <v>58.7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>44600</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B39" s="1">
         <v>0.45310185185185187</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C39" s="3">
         <v>57.2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>44602</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B40" s="1">
         <v>0.46609953703703705</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C40" s="3">
         <v>58.8</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>44607</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B41" s="1">
         <v>0.45799768518518519</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C41" s="3">
         <v>57.8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>44609</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B42" s="1">
         <v>0.44462962962962965</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C42" s="3">
         <v>54.9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>44614</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B43" s="1">
         <v>0.48881944444444447</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C43" s="3">
         <v>61.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>44616</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B44" s="1">
         <v>0.43121527777777779</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C44" s="3">
         <v>60.3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>44621</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B45" s="1">
         <v>0.43893518518518521</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C45" s="3">
         <v>60.2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44623</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B46" s="1">
         <v>0.45624999999999999</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C46" s="3">
         <v>56.3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>44628</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B47" s="1">
         <v>0.47378472222222223</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C47" s="3">
         <v>58.3</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>44630</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B48" s="1">
         <v>0.44427083333333334</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C48" s="3">
         <v>63.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>44635</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B49" s="1">
         <v>0.47141203703703699</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C49" s="3">
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>44637</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B50" s="1">
         <v>0.43914351851851857</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C50" s="3">
         <v>61.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>44642</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B51" s="1">
         <v>0.43111111111111117</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C51" s="3">
         <v>68.2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>44644</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B52" s="1">
         <v>0.4500231481481482</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C52" s="3">
         <v>63.1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>44649</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B53" s="1">
         <v>0.5455902777777778</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C53" s="3">
         <v>57.2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>44649</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B54" s="1">
         <v>0.65931712962962963</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C54" s="3">
         <v>57.5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>44649</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B55" s="1">
         <v>0.65957175925925926</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C55" s="3">
         <v>55.9</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>44649</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B56" s="1">
         <v>0.84237268518518515</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C56" s="3">
         <v>51.6</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>44649</v>
       </c>
-      <c r="B58" s="6">
+      <c r="B57" s="1">
         <v>0.84255787037037033</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C57" s="3">
         <v>56.3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>44650</v>
       </c>
-      <c r="B59" s="6">
+      <c r="B58" s="1">
         <v>0.61534722222222216</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C58" s="3">
         <v>54.8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>44650</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B59" s="1">
         <v>0.61556712962962956</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C59" s="3">
         <v>53.2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>44651</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B60" s="1">
         <v>0.43260416666666668</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C60" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>44653</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B61" s="1">
         <v>0.54296296296296298</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C61" s="3">
         <v>56.2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>44656</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B62" s="1">
         <v>0.44135416666666666</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C62" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>44658</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B63" s="1">
         <v>0.47093750000000001</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C63" s="3">
         <v>54.1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>44663</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B64" s="1">
         <v>0.44538194444444446</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C64" s="3">
         <v>54.6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>44665</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B65" s="1">
         <v>0.41427083333333337</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C65" s="3">
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>44670</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B66" s="1">
         <v>0.49200231481481477</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="C66" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>44672</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B67" s="1">
         <v>0.43775462962962958</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="C67" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>44677</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B68" s="1">
         <v>0.43221064814814819</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="C68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
         <v>44679</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B69" s="1">
         <v>0.43214120370370374</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="C69" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
         <v>44680</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B70" s="1">
         <v>0.43584490740740739</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="C70" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
         <v>44681</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B71" s="1">
         <v>0.42524305555555553</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="C71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
         <v>44682</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B72" s="1">
         <v>0.43865740740740744</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="C72" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>44683</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B73" s="1">
         <v>0.44228009259259254</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="C73" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
         <v>44684</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B74" s="1">
         <v>0.45407407407407407</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="C74" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
         <v>44685</v>
       </c>
-      <c r="B76" s="6">
+      <c r="B75" s="1">
         <v>0.45087962962962963</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="C75" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
         <v>44686</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B76" s="1">
         <v>0.44953703703703707</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="C76" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
         <v>44687</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B77" s="1">
         <v>0.43818287037037035</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="C77" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>44688</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B78" s="1">
         <v>0.47746527777777775</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="C78" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>44689</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B79" s="1">
         <v>0.45887731481481481</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="C79" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
         <v>44690</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B80" s="1">
         <v>0.54891203703703706</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="C80" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
         <v>44691</v>
       </c>
-      <c r="B82" s="6">
+      <c r="B81" s="1">
         <v>0.45593750000000005</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="C81" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
         <v>44692</v>
       </c>
-      <c r="B83" s="6">
+      <c r="B82" s="1">
         <v>0.47040509259259261</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="C82" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
         <v>44693</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B83" s="1">
         <v>0.42621527777777773</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="C83" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>44693</v>
       </c>
-      <c r="B85" s="6">
+      <c r="B84" s="1">
         <v>0.6758912037037037</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="C84" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>44694</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B85" s="1">
         <v>0.45842592592592596</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="C85" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>44694</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B86" s="1">
         <v>0.67811342592592594</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="C86" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
         <v>44695</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B87" s="1">
         <v>7.2106481481481475E-3</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="C87" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
         <v>44696</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B88" s="1">
         <v>0.44209490740740742</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="C88" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
         <v>44697</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B89" s="1">
         <v>0.53344907407407405</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="C89" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
         <v>44698</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B90" s="1">
         <v>0.41979166666666662</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+      <c r="C90" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>44699</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B91" s="1">
         <v>0.50274305555555554</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="C91" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>44700</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B92" s="1">
         <v>0.44037037037037036</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="C92" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
         <v>44701</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B93" s="1">
         <v>0.44834490740740746</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="C93" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
         <v>44702</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B94" s="1">
         <v>0.84413194444444439</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="C94" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
         <v>44703</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B95" s="1">
         <v>0.43953703703703706</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="C95" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
         <v>44704</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B96" s="1">
         <v>0.45069444444444445</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="C96" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>44705</v>
       </c>
-      <c r="B98" s="6">
+      <c r="B97" s="1">
         <v>0.47765046296296299</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
         <v>44706</v>
       </c>
-      <c r="B99" s="6">
+      <c r="B98" s="1">
         <v>0.42645833333333333</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="C98" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
         <v>44707</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B99" s="1">
         <v>0.45232638888888888</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="C99" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
         <v>44708</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B100" s="1">
         <v>0.48046296296296293</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="C100" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
         <v>44709</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B101" s="1">
         <v>0.42663194444444441</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+      <c r="C101" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
         <v>44710</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B102" s="1">
         <v>0.44214120370370374</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+      <c r="C102" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
         <v>44711</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B103" s="1">
         <v>0.46884259259259259</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+      <c r="C103" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
         <v>44712</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B104" s="1">
         <v>0.44430555555555556</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+      <c r="C104" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
         <v>44714</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B105" s="1">
         <v>0.46090277777777783</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="C105" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
         <v>44715</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B106" s="1">
         <v>0.58140046296296299</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="C106" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
         <v>44716</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B107" s="1">
         <v>0.44899305555555552</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+      <c r="C107" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
         <v>44717</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B108" s="1">
         <v>0.47799768518518521</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+      <c r="C108" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
         <v>44719</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B109" s="1">
         <v>0.37622685185185184</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="C109" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
         <v>44719</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B110" s="1">
         <v>0.42622685185185188</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="C110" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>44720</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B111" s="1">
         <v>0.44696759259259261</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="C111" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
         <v>44721</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B112" s="1">
         <v>0.43299768518518517</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+      <c r="C112" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
         <v>44722</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B113" s="1">
         <v>0.39938657407407407</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+      <c r="C113" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
         <v>44723</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B114" s="1">
         <v>0.3908449074074074</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+      <c r="C114" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
         <v>44724</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B115" s="1">
         <v>0.57057870370370367</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="C115" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
         <v>44725</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B116" s="1">
         <v>0.51733796296296297</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+      <c r="C116" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
         <v>44726</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B117" s="1">
         <v>0.46303240740740742</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+      <c r="C117" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
         <v>44727</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B118" s="1">
         <v>0.40289351851851851</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+      <c r="C118" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
         <v>44728</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B119" s="1">
         <v>0.43306712962962962</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+      <c r="C119" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
         <v>44729</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B120" s="1">
         <v>0.4321875</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+      <c r="C120" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
         <v>44733</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B121" s="1">
         <v>0.44659722222222226</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="C121" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
         <v>44734</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B122" s="1">
         <v>0.48380787037037037</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+      <c r="C122" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
         <v>44735</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B123" s="1">
         <v>0.45594907407407409</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+      <c r="C123" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
         <v>44736</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B124" s="1">
         <v>0.53995370370370377</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+      <c r="C124" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
         <v>44737</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B125" s="1">
         <v>0.45754629629629634</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+      <c r="C125" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
         <v>44738</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B126" s="1">
         <v>0.49379629629629629</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+      <c r="C126" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
         <v>44739</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B127" s="1">
         <v>0.41120370370370374</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="C127" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
         <v>44740</v>
       </c>
-      <c r="B129" s="6">
+      <c r="B128" s="1">
         <v>0.54299768518518521</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+      <c r="C128" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
         <v>44741</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B129" s="1">
         <v>0.43623842592592593</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+      <c r="C129" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
         <v>44742</v>
       </c>
-      <c r="B131" s="6">
+      <c r="B130" s="1">
         <v>0.45565972222222223</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="C130" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
         <v>44743</v>
       </c>
-      <c r="B132" s="6">
+      <c r="B131" s="1">
         <v>0.65563657407407405</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+      <c r="C131" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
         <v>44744</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B132" s="1">
         <v>0.53303240740740743</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+      <c r="C132" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
         <v>44745</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B133" s="1">
         <v>0.4626736111111111</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+      <c r="C133" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
         <v>44746</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B134" s="1">
         <v>0.49665509259259261</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="C134" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
         <v>44747</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B135" s="1">
         <v>0.41980324074074077</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+      <c r="C135" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
         <v>44748</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B136" s="1">
         <v>0.46475694444444443</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+      <c r="C136" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
         <v>44749</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B137" s="1">
         <v>0.48956018518518518</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+      <c r="C137" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
         <v>44750</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B138" s="1">
         <v>0.55783564814814812</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+      <c r="C138" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
         <v>44751</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B139" s="1">
         <v>0.46436342592592594</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+      <c r="C139" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
         <v>44752</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B140" s="1">
         <v>0.48575231481481485</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+      <c r="C140" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
         <v>44753</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B141" s="1">
         <v>0.45527777777777773</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+      <c r="C141" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
         <v>44754</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B142" s="1">
         <v>0.41775462962962967</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+      <c r="C142" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
         <v>44755</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B143" s="1">
         <v>0.48504629629629631</v>
       </c>
-      <c r="C144" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+      <c r="C143" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
         <v>44756</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B144" s="1">
         <v>0.44467592592592592</v>
       </c>
-      <c r="C145" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+      <c r="C144" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
         <v>44757</v>
       </c>
-      <c r="B146" s="6">
+      <c r="B145" s="1">
         <v>0.45444444444444443</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+      <c r="C145" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
         <v>44758</v>
       </c>
-      <c r="B147" s="6">
+      <c r="B146" s="1">
         <v>0.51420138888888889</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+      <c r="C146" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
         <v>44759</v>
       </c>
-      <c r="B148" s="6">
+      <c r="B147" s="1">
         <v>0.48396990740740736</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+      <c r="C147" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
         <v>44760</v>
       </c>
-      <c r="B149" s="6">
+      <c r="B148" s="1">
         <v>0.44113425925925925</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+      <c r="C148" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
         <v>44761</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B149" s="1">
         <v>0.42858796296296298</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+      <c r="C149" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
         <v>44762</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B150" s="1">
         <v>0.43938657407407411</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+      <c r="C150" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
         <v>44763</v>
       </c>
-      <c r="B152" s="6">
+      <c r="B151" s="1">
         <v>0.43939814814814815</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+      <c r="C151" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
         <v>44765</v>
       </c>
-      <c r="B153" s="6">
+      <c r="B152" s="1">
         <v>0.51118055555555553</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+      <c r="C152" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
         <v>44768</v>
       </c>
-      <c r="B154" s="6">
+      <c r="B153" s="1">
         <v>0.44093749999999998</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+      <c r="C153" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
         <v>44770</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B154" s="1">
         <v>0.42611111111111111</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+      <c r="C154" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
         <v>44775</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B155" s="1">
         <v>0.45614583333333331</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+      <c r="C155" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
         <v>44776</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B156" s="1">
         <v>0.50755787037037037</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+      <c r="C156" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
         <v>44777</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B157" s="1">
         <v>0.44209490740740742</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+      <c r="C157" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
         <v>44782</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B158" s="1">
         <v>0.43925925925925924</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+      <c r="C158" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
         <v>44784</v>
       </c>
-      <c r="B160" s="6">
+      <c r="B159" s="1">
         <v>0.45567129629629632</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+      <c r="C159" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
         <v>44789</v>
       </c>
-      <c r="B161" s="6">
+      <c r="B160" s="1">
         <v>0.46793981481481484</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+      <c r="C160" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
         <v>44791</v>
       </c>
-      <c r="B162" s="6">
+      <c r="B161" s="1">
         <v>0.47938657407407409</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+      <c r="C161" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
         <v>44796</v>
       </c>
-      <c r="B163" s="6">
+      <c r="B162" s="1">
         <v>0.49547453703703703</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+      <c r="C162" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
         <v>44798</v>
       </c>
-      <c r="B164" s="6">
+      <c r="B163" s="1">
         <v>0.46461805555555552</v>
       </c>
-      <c r="C164" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+      <c r="C163" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
         <v>44803</v>
       </c>
-      <c r="B165" s="6">
+      <c r="B164" s="1">
         <v>0.48887731481481483</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+      <c r="C164" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
         <v>44805</v>
       </c>
-      <c r="B166" s="6">
+      <c r="B165" s="1">
         <v>0.44577546296296294</v>
       </c>
-      <c r="C166" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+      <c r="C165" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
         <v>44810</v>
       </c>
-      <c r="B167" s="6">
+      <c r="B166" s="1">
         <v>0.42738425925925921</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+      <c r="C166" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
         <v>44812</v>
       </c>
-      <c r="B168" s="6">
+      <c r="B167" s="1">
         <v>0.46358796296296295</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+      <c r="C167" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
         <v>44817</v>
       </c>
-      <c r="B169" s="6">
+      <c r="B168" s="1">
         <v>0.42746527777777782</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+      <c r="C168" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
         <v>44830</v>
       </c>
-      <c r="B170" s="6">
+      <c r="B169" s="1">
         <v>0.52254629629629623</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+      <c r="C169" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
         <v>44831</v>
       </c>
-      <c r="B171" s="6">
+      <c r="B170" s="1">
         <v>0.41181712962962963</v>
       </c>
-      <c r="C171" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+      <c r="C170" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
         <v>44833</v>
       </c>
-      <c r="B172" s="6">
+      <c r="B171" s="1">
         <v>0.46365740740740741</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+      <c r="C171" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
         <v>44838</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B172" s="1">
         <v>0.42784722222222221</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+      <c r="C172" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
         <v>44840</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B173" s="1">
         <v>0.4475810185185185</v>
       </c>
-      <c r="C174" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+      <c r="C173" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
         <v>44845</v>
       </c>
-      <c r="B175" s="6">
+      <c r="B174" s="1">
         <v>0.44560185185185186</v>
       </c>
-      <c r="C175" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+      <c r="C174" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
         <v>44847</v>
       </c>
-      <c r="B176" s="6">
+      <c r="B175" s="1">
         <v>0.45288194444444446</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+      <c r="C175" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
         <v>44852</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B176" s="1">
         <v>0.44936342592592587</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C176" s="3">
         <v>61.4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
         <v>44854</v>
       </c>
-      <c r="B178" s="6">
+      <c r="B177" s="1">
         <v>0.44917824074074075</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C177" s="3">
         <v>57.9</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
         <v>44859</v>
       </c>
-      <c r="B179" s="6">
+      <c r="B178" s="1">
         <v>0.44572916666666668</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C178" s="3">
         <v>57.9</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
         <v>44861</v>
       </c>
-      <c r="B180" s="6">
+      <c r="B179" s="1">
         <v>0.43958333333333338</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C179" s="3">
         <v>59.7</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
         <v>44866</v>
       </c>
-      <c r="B181" s="6">
+      <c r="B180" s="1">
         <v>0.44603009259259258</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C180" s="3">
         <v>58.3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
         <v>44868</v>
       </c>
-      <c r="B182" s="6">
+      <c r="B181" s="1">
         <v>0.4782986111111111</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C181" s="3">
         <v>57.9</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
         <v>44873</v>
       </c>
-      <c r="B183" s="6">
+      <c r="B182" s="1">
         <v>0.42503472222222222</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C182" s="3">
         <v>58.4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
         <v>44875</v>
       </c>
-      <c r="B184" s="6">
+      <c r="B183" s="1">
         <v>0.4534259259259259</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C183" s="3">
         <v>59.1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
         <v>44880</v>
       </c>
-      <c r="B185" s="6">
+      <c r="B184" s="1">
         <v>0.46730324074074076</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C184" s="3">
         <v>61.1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
         <v>44882</v>
       </c>
-      <c r="B186" s="6">
+      <c r="B185" s="1">
         <v>0.44918981481481479</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C185" s="3">
         <v>59.8</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
         <v>44887</v>
       </c>
-      <c r="B187" s="6">
+      <c r="B186" s="1">
         <v>0.43766203703703704</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C186" s="3">
         <v>60.3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
         <v>44889</v>
       </c>
-      <c r="B188" s="6">
+      <c r="B187" s="1">
         <v>0.44396990740740744</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C187" s="3">
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
         <v>44894</v>
       </c>
-      <c r="B189" s="6">
+      <c r="B188" s="1">
         <v>0.42456018518518518</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C188" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
         <v>44896</v>
       </c>
-      <c r="B190" s="6">
+      <c r="B189" s="1">
         <v>0.45613425925925927</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C189" s="3">
         <v>59.7</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
         <v>44901</v>
       </c>
-      <c r="B191" s="6">
+      <c r="B190" s="1">
         <v>0.42155092592592597</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C190" s="3">
         <v>60.3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
         <v>44903</v>
       </c>
-      <c r="B192" s="6">
+      <c r="B191" s="1">
         <v>0.42776620370370372</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C191" s="3">
         <v>59.3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
         <v>44908</v>
       </c>
-      <c r="B193" s="6">
+      <c r="B192" s="1">
         <v>0.50167824074074074</v>
       </c>
-      <c r="C193" s="5">
+      <c r="C192" s="3">
         <v>59.1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
         <v>44910</v>
       </c>
-      <c r="B194" s="6">
+      <c r="B193" s="1">
         <v>0.42443287037037036</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C193" s="3">
         <v>56.6</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
         <v>44915</v>
       </c>
-      <c r="B195" s="6">
+      <c r="B194" s="1">
         <v>0.48590277777777779</v>
       </c>
-      <c r="C195" s="5">
+      <c r="C194" s="3">
         <v>57.5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
         <v>44917</v>
       </c>
-      <c r="B196" s="6">
+      <c r="B195" s="1">
         <v>0.45931712962962962</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C195" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
         <v>44922</v>
       </c>
-      <c r="B197" s="6">
+      <c r="B196" s="1">
         <v>0.43241898148148145</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C196" s="3">
         <v>58.5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
         <v>44924</v>
       </c>
-      <c r="B198" s="6">
+      <c r="B197" s="1">
         <v>0.42245370370370372</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C197" s="3">
         <v>63.4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
         <v>44929</v>
       </c>
-      <c r="B199" s="6">
+      <c r="B198" s="1">
         <v>0.45773148148148146</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C198" s="3">
         <v>63.9</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
         <v>44931</v>
       </c>
-      <c r="B200" s="6">
+      <c r="B199" s="1">
         <v>0.44368055555555558</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C199" s="3">
         <v>58.8</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
         <v>44936</v>
       </c>
-      <c r="B201" s="6">
+      <c r="B200" s="1">
         <v>0.47050925925925924</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C200" s="3">
         <v>56.2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
         <v>44938</v>
       </c>
-      <c r="B202" s="6">
+      <c r="B201" s="1">
         <v>0.42446759259259265</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C201" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
         <v>44943</v>
       </c>
-      <c r="B203" s="6">
+      <c r="B202" s="1">
         <v>0.44667824074074075</v>
       </c>
-      <c r="C203" s="5">
+      <c r="C202" s="3">
         <v>55.7</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
         <v>44945</v>
       </c>
-      <c r="B204" s="6">
+      <c r="B203" s="1">
         <v>0.46437499999999998</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C203" s="3">
         <v>56.3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
         <v>44950</v>
       </c>
-      <c r="B205" s="6">
+      <c r="B204" s="1">
         <v>0.47050925925925924</v>
       </c>
-      <c r="C205" s="5">
+      <c r="C204" s="3">
         <v>56.9</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
         <v>44952</v>
       </c>
-      <c r="B206" s="6">
+      <c r="B205" s="1">
         <v>0.42666666666666669</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C205" s="3">
         <v>57.2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
         <v>44957</v>
       </c>
-      <c r="B207" s="6">
+      <c r="B206" s="1">
         <v>0.43252314814814818</v>
       </c>
-      <c r="C207" s="5">
+      <c r="C206" s="3">
         <v>57.7</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
         <v>44959</v>
       </c>
-      <c r="B208" s="6">
+      <c r="B207" s="1">
         <v>0.46009259259259255</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C207" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
         <v>44964</v>
       </c>
-      <c r="B209" s="6">
+      <c r="B208" s="1">
         <v>0.45432870370370365</v>
       </c>
-      <c r="C209" s="5">
+      <c r="C208" s="3">
         <v>54.6</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
         <v>44966</v>
       </c>
-      <c r="B210" s="6">
+      <c r="B209" s="1">
         <v>0.44222222222222224</v>
       </c>
-      <c r="C210" s="5">
+      <c r="C209" s="3">
         <v>56.2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
         <v>44971</v>
       </c>
-      <c r="B211" s="6">
+      <c r="B210" s="1">
         <v>0.44966435185185188</v>
       </c>
-      <c r="C211" s="5">
+      <c r="C210" s="3">
         <v>54.3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
         <v>44973</v>
       </c>
-      <c r="B212" s="6">
+      <c r="B211" s="1">
         <v>0.47056712962962965</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C211" s="3">
         <v>55</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
         <v>44978</v>
       </c>
-      <c r="B213" s="6">
+      <c r="B212" s="1">
         <v>0.47768518518518516</v>
       </c>
-      <c r="C213" s="5">
+      <c r="C212" s="3">
         <v>51.4</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
         <v>44980</v>
       </c>
-      <c r="B214" s="6">
+      <c r="B213" s="1">
         <v>0.47090277777777773</v>
       </c>
-      <c r="C214" s="5">
+      <c r="C213" s="3">
         <v>52.6</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
         <v>44985</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B214" s="1">
         <v>0.46252314814814816</v>
       </c>
-      <c r="C215" s="5">
+      <c r="C214" s="3">
         <v>52.2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
         <v>44987</v>
       </c>
-      <c r="B216" s="6">
+      <c r="B215" s="1">
         <v>0.43234953703703699</v>
       </c>
-      <c r="C216" s="5">
+      <c r="C215" s="3">
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
         <v>44992</v>
       </c>
-      <c r="B217" s="6">
+      <c r="B216" s="1">
         <v>0.43782407407407403</v>
       </c>
-      <c r="C217" s="5">
+      <c r="C216" s="3">
         <v>51.6</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
         <v>44994</v>
       </c>
-      <c r="B218" s="6">
+      <c r="B217" s="1">
         <v>0.48021990740740739</v>
       </c>
-      <c r="C218" s="5">
+      <c r="C217" s="3">
         <v>51.5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
         <v>44999</v>
       </c>
-      <c r="B219" s="6">
+      <c r="B218" s="1">
         <v>0.46211805555555557</v>
       </c>
-      <c r="C219" s="5">
+      <c r="C218" s="3">
         <v>51.3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
         <v>45001</v>
       </c>
-      <c r="B220" s="6">
+      <c r="B219" s="1">
         <v>0.46328703703703705</v>
       </c>
-      <c r="C220" s="5">
+      <c r="C219" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
         <v>45006</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B220" s="1">
         <v>0.42452546296296295</v>
       </c>
-      <c r="C221" s="5">
+      <c r="C220" s="3">
         <v>45.2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
         <v>45008</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B221" s="1">
         <v>0.42753472222222227</v>
       </c>
-      <c r="C222" s="5">
+      <c r="C221" s="3">
         <v>50.8</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
         <v>45013</v>
       </c>
-      <c r="B223" s="6">
+      <c r="B222" s="1">
         <v>0.45915509259259263</v>
       </c>
-      <c r="C223" s="5">
+      <c r="C222" s="3">
         <v>51.6</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
         <v>45015</v>
       </c>
-      <c r="B224" s="6">
+      <c r="B223" s="1">
         <v>0.42952546296296296</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C223" s="3">
         <v>52.8</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
         <v>45020</v>
       </c>
-      <c r="B225" s="6">
+      <c r="B224" s="1">
         <v>0.45693287037037034</v>
       </c>
-      <c r="C225" s="5">
+      <c r="C224" s="3">
         <v>50.9</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
         <v>45022</v>
       </c>
-      <c r="B226" s="6">
+      <c r="B225" s="1">
         <v>0.42381944444444447</v>
       </c>
-      <c r="C226" s="5">
+      <c r="C225" s="3">
         <v>51.7</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
         <v>45027</v>
       </c>
-      <c r="B227" s="6">
+      <c r="B226" s="1">
         <v>0.42900462962962965</v>
       </c>
-      <c r="C227" s="5">
+      <c r="C226" s="3">
         <v>56.2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
         <v>45047</v>
       </c>
-      <c r="B228" s="6">
+      <c r="B227" s="1">
         <v>0.68956018518518514</v>
       </c>
-      <c r="C228" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+      <c r="C227" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
         <v>45048</v>
       </c>
-      <c r="B229" s="6">
+      <c r="B228" s="1">
         <v>0.43506944444444445</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+      <c r="C228" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
         <v>45050</v>
       </c>
-      <c r="B230" s="6">
+      <c r="B229" s="1">
         <v>0.49251157407407403</v>
       </c>
-      <c r="C230" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+      <c r="C229" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
         <v>45055</v>
       </c>
-      <c r="B231" s="6">
+      <c r="B230" s="1">
         <v>0.45424768518518516</v>
       </c>
-      <c r="C231" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+      <c r="C230" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
         <v>45057</v>
       </c>
-      <c r="B232" s="6">
+      <c r="B231" s="1">
         <v>0.44070601851851854</v>
       </c>
-      <c r="C232" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+      <c r="C231" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
         <v>45062</v>
       </c>
-      <c r="B233" s="6">
+      <c r="B232" s="1">
         <v>0.45270833333333332</v>
       </c>
-      <c r="C233" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+      <c r="C232" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
         <v>45064</v>
       </c>
-      <c r="B234" s="6">
+      <c r="B233" s="1">
         <v>0.46337962962962959</v>
       </c>
-      <c r="C234" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+      <c r="C233" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
         <v>45069</v>
       </c>
-      <c r="B235" s="6">
+      <c r="B234" s="1">
         <v>0.45428240740740744</v>
       </c>
-      <c r="C235" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+      <c r="C234" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
         <v>45071</v>
       </c>
-      <c r="B236" s="6">
+      <c r="B235" s="1">
         <v>0.46103009259259259</v>
       </c>
-      <c r="C236" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+      <c r="C235" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
         <v>45072</v>
       </c>
-      <c r="B237" s="6">
+      <c r="B236" s="1">
         <v>0.14520833333333333</v>
       </c>
-      <c r="C237" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+      <c r="C236" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
         <v>45072</v>
       </c>
-      <c r="B238" s="6">
+      <c r="B237" s="1">
         <v>0.57094907407407403</v>
       </c>
-      <c r="C238" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+      <c r="C237" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
         <v>45076</v>
       </c>
-      <c r="B239" s="6">
+      <c r="B238" s="1">
         <v>0.46318287037037037</v>
       </c>
-      <c r="C239" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+      <c r="C238" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
         <v>45077</v>
       </c>
-      <c r="B240" s="6">
+      <c r="B239" s="1">
         <v>0.43109953703703702</v>
       </c>
-      <c r="C240" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+      <c r="C239" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
         <v>45078</v>
       </c>
-      <c r="B241" s="6">
+      <c r="B240" s="1">
         <v>0.42813657407407407</v>
       </c>
-      <c r="C241" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+      <c r="C240" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
         <v>45083</v>
       </c>
-      <c r="B242" s="6">
+      <c r="B241" s="1">
         <v>0.42526620370370366</v>
       </c>
-      <c r="C242" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+      <c r="C241" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
         <v>45085</v>
       </c>
-      <c r="B243" s="6">
+      <c r="B242" s="1">
         <v>0.45239583333333333</v>
       </c>
-      <c r="C243" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+      <c r="C242" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
         <v>45090</v>
       </c>
-      <c r="B244" s="6">
+      <c r="B243" s="1">
         <v>0.42523148148148149</v>
       </c>
-      <c r="C244" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+      <c r="C243" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
         <v>45092</v>
       </c>
-      <c r="B245" s="6">
+      <c r="B244" s="1">
         <v>0.45822916666666669</v>
       </c>
-      <c r="C245" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+      <c r="C244" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
         <v>45097</v>
       </c>
-      <c r="B246" s="6">
+      <c r="B245" s="1">
         <v>0.44951388888888894</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+      <c r="C245" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
         <v>45099</v>
       </c>
-      <c r="B247" s="6">
+      <c r="B246" s="1">
         <v>0.44677083333333334</v>
       </c>
-      <c r="C247" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+      <c r="C246" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
         <v>45104</v>
       </c>
-      <c r="B248" s="6">
+      <c r="B247" s="1">
         <v>0.42474537037037036</v>
       </c>
-      <c r="C248" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+      <c r="C247" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
         <v>45106</v>
       </c>
-      <c r="B249" s="6">
+      <c r="B248" s="1">
         <v>0.4664814814814815</v>
       </c>
-      <c r="C249" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+      <c r="C248" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
         <v>45111</v>
       </c>
-      <c r="B250" s="6">
+      <c r="B249" s="1">
         <v>0.44589120370370372</v>
       </c>
-      <c r="C250" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+      <c r="C249" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
         <v>45113</v>
       </c>
-      <c r="B251" s="6">
+      <c r="B250" s="1">
         <v>0.46741898148148148</v>
       </c>
-      <c r="C251" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+      <c r="C250" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
         <v>45118</v>
       </c>
-      <c r="B252" s="6">
+      <c r="B251" s="1">
         <v>0.44598379629629631</v>
       </c>
-      <c r="C252" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+      <c r="C251" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
         <v>45120</v>
       </c>
-      <c r="B253" s="6">
+      <c r="B252" s="1">
         <v>0.4729976851851852</v>
       </c>
-      <c r="C253" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+      <c r="C252" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
         <v>45125</v>
       </c>
-      <c r="B254" s="6">
+      <c r="B253" s="1">
         <v>0.48302083333333329</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+      <c r="C253" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
         <v>45127</v>
       </c>
-      <c r="B255" s="6">
+      <c r="B254" s="1">
         <v>0.42591435185185184</v>
       </c>
-      <c r="C255" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+      <c r="C254" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
         <v>45132</v>
       </c>
-      <c r="B256" s="6">
+      <c r="B255" s="1">
         <v>0.47348379629629633</v>
       </c>
-      <c r="C256" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+      <c r="C255" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
         <v>45134</v>
       </c>
-      <c r="B257" s="6">
+      <c r="B256" s="1">
         <v>0.46241898148148147</v>
       </c>
-      <c r="C257" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+      <c r="C256" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
         <v>45139</v>
       </c>
-      <c r="B258" s="6">
+      <c r="B257" s="1">
         <v>0.42655092592592592</v>
       </c>
-      <c r="C258" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
+      <c r="C257" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
         <v>45141</v>
       </c>
-      <c r="B259" s="6">
+      <c r="B258" s="1">
         <v>0.46077546296296296</v>
       </c>
-      <c r="C259" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
+      <c r="C258" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
         <v>45146</v>
       </c>
-      <c r="B260" s="6">
+      <c r="B259" s="1">
         <v>0.46153935185185185</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
+      <c r="C259" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
         <v>45148</v>
       </c>
-      <c r="B261" s="6">
+      <c r="B260" s="1">
         <v>0.46151620370370372</v>
       </c>
-      <c r="C261" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
+      <c r="C260" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
         <v>45153</v>
       </c>
-      <c r="B262" s="6">
+      <c r="B261" s="1">
         <v>0.45225694444444442</v>
       </c>
-      <c r="C262" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
+      <c r="C261" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
         <v>45155</v>
       </c>
-      <c r="B263" s="6">
+      <c r="B262" s="1">
         <v>0.45837962962962964</v>
       </c>
-      <c r="C263" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="3">
+      <c r="C262" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
         <v>45160</v>
       </c>
-      <c r="B264" s="6">
+      <c r="B263" s="1">
         <v>0.46260416666666665</v>
       </c>
-      <c r="C264" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
+      <c r="C263" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
         <v>45162</v>
       </c>
-      <c r="B265" s="6">
+      <c r="B264" s="1">
         <v>0.44184027777777773</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
+      <c r="C264" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
         <v>45167</v>
       </c>
-      <c r="B266" s="6">
+      <c r="B265" s="1">
         <v>0.43140046296296292</v>
       </c>
-      <c r="C266" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
+      <c r="C265" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
         <v>45169</v>
       </c>
-      <c r="B267" s="6">
+      <c r="B266" s="1">
         <v>0.46312500000000001</v>
       </c>
-      <c r="C267" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
+      <c r="C266" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
         <v>45174</v>
       </c>
-      <c r="B268" s="6">
+      <c r="B267" s="1">
         <v>0.42958333333333337</v>
       </c>
-      <c r="C268" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
+      <c r="C267" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
         <v>45176</v>
       </c>
-      <c r="B269" s="6">
+      <c r="B268" s="1">
         <v>0.46716435185185184</v>
       </c>
-      <c r="C269" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
+      <c r="C268" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
         <v>45181</v>
       </c>
-      <c r="B270" s="6">
+      <c r="B269" s="1">
         <v>0.47339120370370374</v>
       </c>
-      <c r="C270" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
+      <c r="C269" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
         <v>45183</v>
       </c>
-      <c r="B271" s="6">
+      <c r="B270" s="1">
         <v>0.44664351851851852</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
+      <c r="C270" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
         <v>45188</v>
       </c>
-      <c r="B272" s="6">
+      <c r="B271" s="1">
         <v>0.46033564814814815</v>
       </c>
-      <c r="C272" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
+      <c r="C271" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
         <v>45190</v>
       </c>
-      <c r="B273" s="6">
+      <c r="B272" s="1">
         <v>0.45460648148148147</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
+      <c r="C272" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
         <v>45195</v>
       </c>
-      <c r="B274" s="6">
+      <c r="B273" s="1">
         <v>0.45033564814814814</v>
       </c>
-      <c r="C274" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
+      <c r="C273" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
         <v>45197</v>
       </c>
-      <c r="B275" s="6">
+      <c r="B274" s="1">
         <v>0.46809027777777779</v>
       </c>
-      <c r="C275" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
+      <c r="C274" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
         <v>45202</v>
       </c>
-      <c r="B276" s="6">
+      <c r="B275" s="1">
         <v>0.43263888888888885</v>
       </c>
-      <c r="C276" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
+      <c r="C275" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
         <v>45204</v>
       </c>
-      <c r="B277" s="6">
+      <c r="B276" s="1">
         <v>0.48774305555555553</v>
       </c>
-      <c r="C277" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
+      <c r="C276" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
         <v>45209</v>
       </c>
-      <c r="B278" s="6">
+      <c r="B277" s="1">
         <v>0.47393518518518518</v>
       </c>
-      <c r="C278" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="3">
+      <c r="C277" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
         <v>45211</v>
       </c>
-      <c r="B279" s="6">
+      <c r="B278" s="1">
         <v>0.46059027777777778</v>
       </c>
-      <c r="C279" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="3">
+      <c r="C278" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
         <v>45216</v>
       </c>
-      <c r="B280" s="6">
+      <c r="B279" s="1">
         <v>0.45891203703703703</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C279" s="3">
         <v>58</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
         <v>45218</v>
       </c>
-      <c r="B281" s="6">
+      <c r="B280" s="1">
         <v>0.43550925925925926</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C280" s="3">
         <v>59.7</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
         <v>45223</v>
       </c>
-      <c r="B282" s="6">
+      <c r="B281" s="1">
         <v>0.43380787037037033</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C281" s="3">
         <v>58.9</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
         <v>45225</v>
       </c>
-      <c r="B283" s="6">
+      <c r="B282" s="1">
         <v>0.49100694444444443</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C282" s="3">
         <v>57.9</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
         <v>45230</v>
       </c>
-      <c r="B284" s="6">
+      <c r="B283" s="1">
         <v>0.47917824074074072</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C283" s="3">
         <v>61.7</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
         <v>45232</v>
       </c>
-      <c r="B285" s="6">
+      <c r="B284" s="1">
         <v>0.42982638888888891</v>
       </c>
-      <c r="C285" s="5">
+      <c r="C284" s="3">
         <v>61.9</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
         <v>45237</v>
       </c>
-      <c r="B286" s="6">
+      <c r="B285" s="1">
         <v>0.43103009259259256</v>
       </c>
-      <c r="C286" s="5">
+      <c r="C285" s="3">
         <v>59.7</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
         <v>45239</v>
       </c>
-      <c r="B287" s="6">
+      <c r="B286" s="1">
         <v>0.42753472222222227</v>
       </c>
-      <c r="C287" s="5">
+      <c r="C286" s="3">
         <v>59.9</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
         <v>45244</v>
       </c>
-      <c r="B288" s="6">
+      <c r="B287" s="1">
         <v>0.45630787037037041</v>
       </c>
-      <c r="C288" s="5">
+      <c r="C287" s="3">
         <v>60.7</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
         <v>45246</v>
       </c>
-      <c r="B289" s="6">
+      <c r="B288" s="1">
         <v>0.42099537037037038</v>
       </c>
-      <c r="C289" s="5">
+      <c r="C288" s="3">
         <v>58.5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="3">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
         <v>45251</v>
       </c>
-      <c r="B290" s="6">
+      <c r="B289" s="1">
         <v>0.43872685185185184</v>
       </c>
-      <c r="C290" s="5">
+      <c r="C289" s="3">
         <v>60.5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="3">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
         <v>45253</v>
       </c>
-      <c r="B291" s="6">
+      <c r="B290" s="1">
         <v>0.47782407407407407</v>
       </c>
-      <c r="C291" s="5">
+      <c r="C290" s="3">
         <v>58.6</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="3">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
         <v>45258</v>
       </c>
-      <c r="B292" s="6">
+      <c r="B291" s="1">
         <v>0.43126157407407412</v>
       </c>
-      <c r="C292" s="5">
+      <c r="C291" s="3">
         <v>58.7</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="3">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
         <v>45260</v>
       </c>
-      <c r="B293" s="6">
+      <c r="B292" s="1">
         <v>0.40120370370370373</v>
       </c>
-      <c r="C293" s="5">
+      <c r="C292" s="3">
         <v>63.5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="3">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
         <v>45265</v>
       </c>
-      <c r="B294" s="6">
+      <c r="B293" s="1">
         <v>0.47971064814814812</v>
       </c>
-      <c r="C294" s="5">
+      <c r="C293" s="3">
         <v>59.3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="3">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
         <v>45267</v>
       </c>
-      <c r="B295" s="6">
+      <c r="B294" s="1">
         <v>0.43137731481481478</v>
       </c>
-      <c r="C295" s="5">
+      <c r="C294" s="3">
         <v>57.4</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="3">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
         <v>45272</v>
       </c>
-      <c r="B296" s="6">
+      <c r="B295" s="1">
         <v>0.4578356481481482</v>
       </c>
-      <c r="C296" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="3">
+      <c r="C295" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
         <v>45274</v>
       </c>
-      <c r="B297" s="6">
+      <c r="B296" s="1">
         <v>0.41988425925925926</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="3">
+      <c r="C296" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
         <v>45279</v>
       </c>
-      <c r="B298" s="6">
+      <c r="B297" s="1">
         <v>0.42986111111111108</v>
       </c>
-      <c r="C298" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="3">
+      <c r="C297" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
         <v>45281</v>
       </c>
-      <c r="B299" s="6">
+      <c r="B298" s="1">
         <v>0.42100694444444442</v>
       </c>
-      <c r="C299" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="3">
+      <c r="C298" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
         <v>45286</v>
       </c>
-      <c r="B300" s="6">
+      <c r="B299" s="1">
         <v>0.42369212962962965</v>
       </c>
-      <c r="C300" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="3">
+      <c r="C299" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
         <v>45288</v>
       </c>
-      <c r="B301" s="6">
+      <c r="B300" s="1">
         <v>0.43067129629629625</v>
       </c>
-      <c r="C301" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="3">
+      <c r="C300" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
         <v>45293</v>
       </c>
-      <c r="B302" s="6">
+      <c r="B301" s="1">
         <v>0.4299189814814815</v>
       </c>
-      <c r="C302" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="3">
+      <c r="C301" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
         <v>45295</v>
       </c>
-      <c r="B303" s="6">
+      <c r="B302" s="1">
         <v>0.42530092592592594</v>
       </c>
-      <c r="C303" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="3">
+      <c r="C302" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
         <v>45300</v>
       </c>
-      <c r="B304" s="6">
+      <c r="B303" s="1">
         <v>0.45982638888888888</v>
       </c>
-      <c r="C304" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="3">
+      <c r="C303" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
         <v>45302</v>
       </c>
-      <c r="B305" s="6">
+      <c r="B304" s="1">
         <v>0.42956018518518518</v>
       </c>
-      <c r="C305" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="3">
+      <c r="C304" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
         <v>45307</v>
       </c>
-      <c r="B306" s="6">
+      <c r="B305" s="1">
         <v>0.43591435185185184</v>
       </c>
-      <c r="C306" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="3">
+      <c r="C305" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
         <v>45309</v>
       </c>
-      <c r="B307" s="6">
+      <c r="B306" s="1">
         <v>0.43368055555555557</v>
       </c>
-      <c r="C307" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="3">
+      <c r="C306" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
         <v>45314</v>
       </c>
-      <c r="B308" s="6">
+      <c r="B307" s="1">
         <v>0.42297453703703702</v>
       </c>
-      <c r="C308" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="3">
+      <c r="C307" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
         <v>45316</v>
       </c>
-      <c r="B309" s="6">
+      <c r="B308" s="1">
         <v>0.47995370370370366</v>
       </c>
-      <c r="C309" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="3">
+      <c r="C308" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
         <v>45321</v>
       </c>
-      <c r="B310" s="6">
+      <c r="B309" s="1">
         <v>0.47728009259259263</v>
       </c>
-      <c r="C310" s="5">
+      <c r="C309" s="3">
         <v>56.9</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="3">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
         <v>45323</v>
       </c>
-      <c r="B311" s="6">
+      <c r="B310" s="1">
         <v>0.47069444444444447</v>
       </c>
-      <c r="C311" s="5">
+      <c r="C310" s="3">
         <v>60.7</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="3">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
         <v>45328</v>
       </c>
-      <c r="B312" s="6">
+      <c r="B311" s="1">
         <v>0.49057870370370371</v>
       </c>
-      <c r="C312" s="5">
+      <c r="C311" s="3">
         <v>57.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
